--- a/BO/Librería de Trabajo/Gestión de Proyecto/BO_C.xlsx
+++ b/BO/Librería de Trabajo/Gestión de Proyecto/BO_C.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\repositorio_GIT\G2_ALPHA_BUSINESS\BO\Librería de Trabajo\Gestión de Proyecto\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="120" yWindow="45" windowWidth="23715" windowHeight="10035"/>
   </bookViews>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>1.Planificacion de la gestión BACKOFFICE</t>
   </si>
@@ -91,6 +96,27 @@
   </si>
   <si>
     <t>Hasta:</t>
+  </si>
+  <si>
+    <t>Grupo 02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cayo Alcos, Diego </t>
+  </si>
+  <si>
+    <t>Cieza Cabrera, Christian</t>
+  </si>
+  <si>
+    <t>Chapoñan Alanya, Brayan</t>
+  </si>
+  <si>
+    <t>Chira Huamán, Hernan</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve">De La Cruz Quispe Victor </t>
   </si>
 </sst>
 </file>
@@ -122,15 +148,27 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -138,15 +176,54 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -156,6 +233,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -204,7 +284,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -239,7 +319,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -448,10 +528,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:F33"/>
+  <dimension ref="C2:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -462,131 +542,348 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:6" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="4" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="D4" t="s">
+      <c r="C4" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="11" t="s">
         <v>23</v>
       </c>
+      <c r="E4" s="13">
+        <v>42455</v>
+      </c>
     </row>
     <row r="5" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="D5" t="s">
+      <c r="C5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="11" t="s">
         <v>24</v>
       </c>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="9"/>
+      <c r="E6" s="8"/>
     </row>
     <row r="7" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="D7" t="s">
+      <c r="C7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="9"/>
+      <c r="E7" s="8"/>
+    </row>
+    <row r="8" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C8" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="9"/>
+      <c r="E8" s="8"/>
+    </row>
+    <row r="9" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="8"/>
+    </row>
+    <row r="10" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D10" s="9"/>
+      <c r="E10" s="8"/>
+    </row>
+    <row r="11" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D11" s="10"/>
+    </row>
+    <row r="12" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C12" s="7"/>
+      <c r="D12" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E12" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F12" s="7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C8" s="1" t="s">
+    <row r="13" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C13" s="4" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C9" t="s">
+      <c r="D13" s="5">
+        <v>8</v>
+      </c>
+      <c r="E13" s="12">
+        <v>42455</v>
+      </c>
+      <c r="F13" s="12">
+        <v>42460</v>
+      </c>
+    </row>
+    <row r="14" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C14" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C10" t="s">
+      <c r="D14" s="3">
+        <v>1</v>
+      </c>
+      <c r="E14" s="13">
+        <v>42455</v>
+      </c>
+      <c r="F14" s="13">
+        <v>42456</v>
+      </c>
+    </row>
+    <row r="15" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C15" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C11" t="s">
+      <c r="D15" s="3">
+        <v>1</v>
+      </c>
+      <c r="E15" s="13">
+        <v>42456</v>
+      </c>
+      <c r="F15" s="13">
+        <v>42457</v>
+      </c>
+    </row>
+    <row r="16" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C16" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="12" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C12" t="s">
+      <c r="D16" s="3">
+        <v>3</v>
+      </c>
+      <c r="E16" s="13">
+        <v>42456</v>
+      </c>
+      <c r="F16" s="13">
+        <v>42459</v>
+      </c>
+    </row>
+    <row r="17" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C17" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C13" t="s">
+      <c r="D17" s="3">
+        <v>2</v>
+      </c>
+      <c r="E17" s="13">
+        <v>42458</v>
+      </c>
+      <c r="F17" s="13">
+        <v>42460</v>
+      </c>
+    </row>
+    <row r="18" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C18" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="14" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C14" s="2" t="s">
+      <c r="D18" s="3">
+        <v>1</v>
+      </c>
+      <c r="E18" s="13">
+        <v>42459</v>
+      </c>
+      <c r="F18" s="13">
+        <v>42460</v>
+      </c>
+    </row>
+    <row r="19" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C19" s="6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="15" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C15" t="s">
+      <c r="D19" s="5">
+        <v>3</v>
+      </c>
+      <c r="E19" s="12">
+        <v>42461</v>
+      </c>
+      <c r="F19" s="12">
+        <v>42466</v>
+      </c>
+    </row>
+    <row r="20" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C20" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="16" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C16" t="s">
+      <c r="D20" s="3">
+        <v>1</v>
+      </c>
+      <c r="E20" s="14">
+        <v>42461</v>
+      </c>
+      <c r="F20" s="13">
+        <v>42462</v>
+      </c>
+    </row>
+    <row r="21" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C21" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C17" t="s">
+      <c r="D21" s="3">
+        <v>1</v>
+      </c>
+      <c r="E21" s="13">
+        <v>42463</v>
+      </c>
+      <c r="F21" s="13">
+        <v>42464</v>
+      </c>
+    </row>
+    <row r="22" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C22" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C18" s="2" t="s">
+      <c r="D22" s="3">
+        <v>1</v>
+      </c>
+      <c r="E22" s="13">
+        <v>42465</v>
+      </c>
+      <c r="F22" s="13">
+        <v>42466</v>
+      </c>
+    </row>
+    <row r="23" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C23" s="6" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C19" t="s">
+      <c r="D23" s="5">
+        <v>13</v>
+      </c>
+      <c r="E23" s="12">
+        <v>42466</v>
+      </c>
+      <c r="F23" s="12">
+        <v>42480</v>
+      </c>
+    </row>
+    <row r="24" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C24" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C20" t="s">
+      <c r="D24" s="3">
+        <v>2</v>
+      </c>
+      <c r="E24" s="13">
+        <v>42466</v>
+      </c>
+      <c r="F24" s="13">
+        <v>42468</v>
+      </c>
+    </row>
+    <row r="25" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C25" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C21" t="s">
+      <c r="D25" s="3">
+        <v>1</v>
+      </c>
+      <c r="E25" s="13">
+        <v>42468</v>
+      </c>
+      <c r="F25" s="13">
+        <v>42469</v>
+      </c>
+    </row>
+    <row r="26" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C26" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C22" t="s">
+      <c r="D26" s="3">
+        <v>2</v>
+      </c>
+      <c r="E26" s="13">
+        <v>42470</v>
+      </c>
+      <c r="F26" s="13">
+        <v>42472</v>
+      </c>
+    </row>
+    <row r="27" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C27" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="23" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C23" t="s">
+      <c r="D27" s="3">
+        <v>5</v>
+      </c>
+      <c r="E27" s="13">
+        <v>42472</v>
+      </c>
+      <c r="F27" s="13">
+        <v>42477</v>
+      </c>
+    </row>
+    <row r="28" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C28" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="24" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C24" s="2" t="s">
+      <c r="D28" s="3">
+        <v>3</v>
+      </c>
+      <c r="E28" s="13">
+        <v>42477</v>
+      </c>
+      <c r="F28" s="13">
+        <v>42480</v>
+      </c>
+    </row>
+    <row r="29" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C29" s="6" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="25" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C25" t="s">
+      <c r="D29" s="5"/>
+      <c r="E29" s="12">
+        <v>42482</v>
+      </c>
+      <c r="F29" s="12">
+        <v>42490</v>
+      </c>
+    </row>
+    <row r="30" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C30" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="26" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C26" t="s">
+      <c r="D30" s="3">
+        <v>4</v>
+      </c>
+      <c r="E30" s="13">
+        <v>42482</v>
+      </c>
+      <c r="F30" s="13">
+        <v>42486</v>
+      </c>
+    </row>
+    <row r="31" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C31" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="27" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C27" s="2"/>
-    </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C33" s="2"/>
+      <c r="D31" s="3">
+        <v>4</v>
+      </c>
+      <c r="E31" s="13">
+        <v>42486</v>
+      </c>
+      <c r="F31" s="13">
+        <v>42490</v>
+      </c>
+    </row>
+    <row r="32" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C32" s="1"/>
+    </row>
+    <row r="38" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C38" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/BO/Librería de Trabajo/Gestión de Proyecto/BO_C.xlsx
+++ b/BO/Librería de Trabajo/Gestión de Proyecto/BO_C.xlsx
@@ -531,7 +531,7 @@
   <dimension ref="C2:F38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -564,7 +564,9 @@
       <c r="D5" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="3"/>
+      <c r="E5" s="13">
+        <v>42490</v>
+      </c>
     </row>
     <row r="6" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C6" s="3" t="s">
